--- a/data/predictions/crim_justice/sentencing/overall/democrat.xlsx
+++ b/data/predictions/crim_justice/sentencing/overall/democrat.xlsx
@@ -871,7 +871,7 @@
         <v>0.1823453940578718</v>
       </c>
       <c r="E34">
-        <v>0.5080578720175305</v>
+        <v>0.5252488373979697</v>
       </c>
       <c r="F34">
         <v>0.298840006315529</v>
@@ -885,7 +885,7 @@
         <v>0.1812775626051668</v>
       </c>
       <c r="E35">
-        <v>0.5003788399397946</v>
+        <v>0.5057390837594006</v>
       </c>
       <c r="F35">
         <v>0.3047984041465367</v>
@@ -899,7 +899,7 @@
         <v>0.1803904196570407</v>
       </c>
       <c r="E36">
-        <v>0.4938691111275129</v>
+        <v>0.504077334627369</v>
       </c>
       <c r="F36">
         <v>0.3107601956847826</v>
@@ -913,7 +913,7 @@
         <v>0.1796646949448733</v>
       </c>
       <c r="E37">
-        <v>0.4896139828566546</v>
+        <v>0.5018081653031973</v>
       </c>
       <c r="F37">
         <v>0.3167253357846667</v>
@@ -927,7 +927,7 @@
         <v>0.179083173357087</v>
       </c>
       <c r="E38">
-        <v>0.4856955416031607</v>
+        <v>0.4977447527654711</v>
       </c>
       <c r="F38">
         <v>0.3226937799011489</v>
@@ -941,7 +941,7 @@
         <v>0.1786304757584722</v>
       </c>
       <c r="E39">
-        <v>0.4824012152269087</v>
+        <v>0.4999265415957222</v>
       </c>
       <c r="F39">
         <v>0.3286654840817604</v>
